--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/StimuliNegative_1.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/StimuliNegative_1.xlsx
@@ -42,64 +42,64 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>Stimuli/219.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/222.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/238.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/255.jpg</t>
   </si>
   <si>
     <t>Stimuli/327.jpg</t>
   </si>
   <si>
-    <t>Stimuli/1051.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3051.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6561.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6562.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6831.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6940.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9041.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9042.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9181.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9340.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9405.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9423.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9599.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9905.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/9920.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/225.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/230.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/1111.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3017.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3022.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3180.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3280.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6190.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6244.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6836.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9180.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9182.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9253.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9300.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9326.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9424.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9425.jpg</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,102 +434,102 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
